--- a/ObtainmentRate/Rate_excels/SunkenDebris/9_1.xlsx
+++ b/ObtainmentRate/Rate_excels/SunkenDebris/9_1.xlsx
@@ -495,13 +495,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E3" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F3" t="n">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F4" t="n">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
-        <v>758</v>
+        <v>812</v>
       </c>
       <c r="F5" t="n">
-        <v>887</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>126</v>
       </c>
       <c r="E6" t="n">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F6" t="n">
-        <v>530</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7">
@@ -630,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -649,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
